--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>0.2222108344061205</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.624577288346266</v>
+        <v>-1.626573931601636</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.008509820239151943</v>
+        <v>0.003906042589667882</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2254600237662683</v>
+        <v>-0.2278729950792223</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2241436992127759</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.647397417566884</v>
+        <v>-1.651488293263144</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01442341007787863</v>
+        <v>0.001197155681909399</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2057832107308885</v>
+        <v>-0.2056321048952436</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2437926571007848</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.694342537859677</v>
+        <v>-1.701030545106083</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04994429958827125</v>
+        <v>-0.03621413079316535</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.214947150055101</v>
+        <v>-0.2152824161279381</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2849065600392735</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.810354043176023</v>
+        <v>-1.81481638738491</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05488671962915541</v>
+        <v>-0.0402247315142395</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2287387055959377</v>
+        <v>-0.2317340639837729</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3479538246833425</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.761205296113409</v>
+        <v>-1.77201329840982</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03281424949115586</v>
+        <v>-0.01629334479398385</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2246667181291328</v>
+        <v>-0.2270308948493264</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.4282899993288447</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.593510872949155</v>
+        <v>-1.59799525342574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02938311608704082</v>
+        <v>0.04682954402753764</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2119344774569315</v>
+        <v>-0.2133211883027974</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.5167050401972855</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.338202610445501</v>
+        <v>-1.339413818159342</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07622120307958538</v>
+        <v>0.08995137187469128</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1990574270255706</v>
+        <v>-0.2008140323649422</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.6024418805992268</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9455745587708937</v>
+        <v>-0.9394956969244304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1659513111275737</v>
+        <v>0.1819575115720804</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1646729793207571</v>
+        <v>-0.1716836604870303</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.6747275498761415</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4934902958178347</v>
+        <v>-0.4923176515724657</v>
       </c>
       <c r="F10" t="n">
-        <v>0.181620671480122</v>
+        <v>0.1963802487805586</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1246535431616871</v>
+        <v>-0.128741270819705</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.7247704006404108</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01787523401089103</v>
+        <v>-0.0191612076329937</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1636721314399303</v>
+        <v>0.1742149115144023</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06272376083411153</v>
+        <v>-0.06592688974595844</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.7479529118326506</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5341820664220205</v>
+        <v>0.5316132672160577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1233205772462659</v>
+        <v>0.1331235683337265</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03228403332759798</v>
+        <v>0.02839778011710659</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7445665298702441</v>
       </c>
       <c r="E13" t="n">
-        <v>1.099701952399417</v>
+        <v>1.096651503342336</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0121759390529817</v>
+        <v>0.01945735150811868</v>
       </c>
       <c r="G13" t="n">
-        <v>0.137057042117857</v>
+        <v>0.1328984835993806</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.721199810401412</v>
       </c>
       <c r="E14" t="n">
-        <v>1.710835338492986</v>
+        <v>1.702670901310799</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1958731863431793</v>
+        <v>-0.1851305058403021</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2549463522459146</v>
+        <v>0.2524153294988631</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6874734427499309</v>
       </c>
       <c r="E15" t="n">
-        <v>2.345169766434527</v>
+        <v>2.339912542569383</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4627072038625571</v>
+        <v>-0.4561860426430084</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3754249238285118</v>
+        <v>0.3749857724936689</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6525463420899377</v>
       </c>
       <c r="E16" t="n">
-        <v>2.976124775322635</v>
+        <v>2.966230491126139</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6914578287420647</v>
+        <v>-0.6905338795178613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5143604436274809</v>
+        <v>0.5178075455031295</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6228769464675513</v>
       </c>
       <c r="E17" t="n">
-        <v>3.569695256060731</v>
+        <v>3.563257517854611</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9286711674272455</v>
+        <v>-0.9317302735894935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6768102350795611</v>
+        <v>0.6797599469128786</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6005220669504189</v>
       </c>
       <c r="E18" t="n">
-        <v>4.127477264037814</v>
+        <v>4.125009202055613</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.151368901775792</v>
+        <v>-1.15515520477208</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8112660964593084</v>
+        <v>0.813902578487487</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5846104349003803</v>
       </c>
       <c r="E19" t="n">
-        <v>4.597089016916116</v>
+        <v>4.596377560273289</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.368518218721752</v>
+        <v>-1.372771218387507</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9881858456935056</v>
+        <v>0.9910096359971191</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5729356954305241</v>
       </c>
       <c r="E20" t="n">
-        <v>4.959577750456058</v>
+        <v>4.958112338654127</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.558149746379574</v>
+        <v>-1.555421184232799</v>
       </c>
       <c r="G20" t="n">
-        <v>1.121000005129736</v>
+        <v>1.125092454845118</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5653895781972192</v>
       </c>
       <c r="E21" t="n">
-        <v>5.291168488644868</v>
+        <v>5.293219435559922</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.775322673612354</v>
+        <v>-1.770628948592636</v>
       </c>
       <c r="G21" t="n">
-        <v>1.257865689784195</v>
+        <v>1.260118111146776</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5657792642155004</v>
       </c>
       <c r="E22" t="n">
-        <v>5.577887089723637</v>
+        <v>5.582266010919096</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.942381980061164</v>
+        <v>-1.931333939848754</v>
       </c>
       <c r="G22" t="n">
-        <v>1.364494467118468</v>
+        <v>1.367272610867563</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5782992280106987</v>
       </c>
       <c r="E23" t="n">
-        <v>5.739488484869335</v>
+        <v>5.744018511900439</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.080458872429463</v>
+        <v>-2.064670673633257</v>
       </c>
       <c r="G23" t="n">
-        <v>1.470492062785099</v>
+        <v>1.473670007391005</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.603811192747201</v>
       </c>
       <c r="E24" t="n">
-        <v>5.898162204449416</v>
+        <v>5.902215303686765</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.16956960395322</v>
+        <v>-2.155242881911141</v>
       </c>
       <c r="G24" t="n">
-        <v>1.514599226602186</v>
+        <v>1.517515884033957</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6384879238227932</v>
       </c>
       <c r="E25" t="n">
-        <v>5.984380675837782</v>
+        <v>5.992120127857217</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.21132046114572</v>
+        <v>-2.193363264000362</v>
       </c>
       <c r="G25" t="n">
-        <v>1.585567026724271</v>
+        <v>1.588612753723987</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6762114951979009</v>
       </c>
       <c r="E26" t="n">
-        <v>6.038215277824508</v>
+        <v>6.048052897332638</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.230628953706716</v>
+        <v>-2.214505488837673</v>
       </c>
       <c r="G26" t="n">
-        <v>1.639415794883088</v>
+        <v>1.648943332624321</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7120407594044936</v>
       </c>
       <c r="E27" t="n">
-        <v>6.019777217837592</v>
+        <v>6.034034683038334</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.216678422234628</v>
+        <v>-2.20552334872197</v>
       </c>
       <c r="G27" t="n">
-        <v>1.618991322765091</v>
+        <v>1.625249622791382</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7417959848442255</v>
       </c>
       <c r="E28" t="n">
-        <v>5.969627394613831</v>
+        <v>5.977273979505109</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.226370444974037</v>
+        <v>-2.217254513233024</v>
       </c>
       <c r="G28" t="n">
-        <v>1.605501978895544</v>
+        <v>1.6162430853793</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7640521179157093</v>
       </c>
       <c r="E29" t="n">
-        <v>5.872277459999625</v>
+        <v>5.877718844101962</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.165559003232146</v>
+        <v>-2.162883957735495</v>
       </c>
       <c r="G29" t="n">
-        <v>1.572795435574037</v>
+        <v>1.587340946273976</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7781671944229015</v>
       </c>
       <c r="E30" t="n">
-        <v>5.73756975556047</v>
+        <v>5.744572566631137</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.15287004808578</v>
+        <v>-2.154656559788456</v>
       </c>
       <c r="G30" t="n">
-        <v>1.5047647551323</v>
+        <v>1.520056350895736</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7842658917567564</v>
       </c>
       <c r="E31" t="n">
-        <v>5.553599974681967</v>
+        <v>5.555115755095779</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.099959395323257</v>
+        <v>-2.101852940326182</v>
       </c>
       <c r="G31" t="n">
-        <v>1.440001738386383</v>
+        <v>1.456491162701129</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7826328680452452</v>
       </c>
       <c r="E32" t="n">
-        <v>5.368119135447015</v>
+        <v>5.372655458554604</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.01490097602729</v>
+        <v>-2.021492968107297</v>
       </c>
       <c r="G32" t="n">
-        <v>1.398439763488438</v>
+        <v>1.414667900629048</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7729233010002852</v>
       </c>
       <c r="E33" t="n">
-        <v>5.112561390912636</v>
+        <v>5.114898809307768</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.970511275777928</v>
+        <v>-1.981225623936622</v>
       </c>
       <c r="G33" t="n">
-        <v>1.33881749319269</v>
+        <v>1.355642183580273</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7550699696422614</v>
       </c>
       <c r="E34" t="n">
-        <v>4.882416185091656</v>
+        <v>4.890830891314129</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.89696051027779</v>
+        <v>-1.910002832716887</v>
       </c>
       <c r="G34" t="n">
-        <v>1.244637633088784</v>
+        <v>1.26005042832456</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7291126886217929</v>
       </c>
       <c r="E35" t="n">
-        <v>4.590454526319833</v>
+        <v>4.601650524329646</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.860781680774693</v>
+        <v>-1.874187601630811</v>
       </c>
       <c r="G35" t="n">
-        <v>1.159010992890027</v>
+        <v>1.175089598214113</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6946401682800241</v>
       </c>
       <c r="E36" t="n">
-        <v>4.221104643430142</v>
+        <v>4.233740868935944</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.815096562788502</v>
+        <v>-1.832915246251186</v>
       </c>
       <c r="G36" t="n">
-        <v>1.11040370840514</v>
+        <v>1.126021126126686</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6521308849665616</v>
       </c>
       <c r="E37" t="n">
-        <v>3.919613872897966</v>
+        <v>3.9279813585468</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.781826520621569</v>
+        <v>-1.796641188591251</v>
       </c>
       <c r="G37" t="n">
-        <v>1.027522157553931</v>
+        <v>1.04357872661032</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6023377130721999</v>
       </c>
       <c r="E38" t="n">
-        <v>3.635915814512972</v>
+        <v>3.645732971772525</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.709693159340162</v>
+        <v>-1.7215266350941</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9551582024712534</v>
+        <v>0.9699256498672963</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5477070090445373</v>
       </c>
       <c r="E39" t="n">
-        <v>3.296366835646867</v>
+        <v>3.306727029503268</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.676501818129294</v>
+        <v>-1.685569742287107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8748596169980988</v>
+        <v>0.8882797040263084</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4912329635308623</v>
       </c>
       <c r="E40" t="n">
-        <v>2.970850237247157</v>
+        <v>2.979822146238571</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.640607886087153</v>
+        <v>-1.647517043020102</v>
       </c>
       <c r="G40" t="n">
-        <v>0.815996023918817</v>
+        <v>0.828465403397761</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4365728311015921</v>
       </c>
       <c r="E41" t="n">
-        <v>2.65680981226085</v>
+        <v>2.664226590360419</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.614747538933744</v>
+        <v>-1.623949254716867</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7644531937727046</v>
+        <v>0.7755232702528123</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.386213095103505</v>
       </c>
       <c r="E42" t="n">
-        <v>2.328192396192178</v>
+        <v>2.333298514221677</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.567699320388505</v>
+        <v>-1.573481479630603</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7025297075216143</v>
+        <v>0.7152603741746942</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3415126866595765</v>
       </c>
       <c r="E43" t="n">
-        <v>2.078678885083593</v>
+        <v>2.080534653627606</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.516472081076214</v>
+        <v>-1.521981935010327</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6292339331191265</v>
+        <v>0.6409147290182988</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3038194307253309</v>
       </c>
       <c r="E44" t="n">
-        <v>1.824658957230724</v>
+        <v>1.826883046249121</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.498008049773796</v>
+        <v>-1.503072456296581</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5450459463972378</v>
+        <v>0.5555792823569821</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2726330674732811</v>
       </c>
       <c r="E45" t="n">
-        <v>1.603309370259572</v>
+        <v>1.602344496538215</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.425548079524719</v>
+        <v>-1.427117376588656</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4944868782019384</v>
+        <v>0.5026843697856724</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2470094769919784</v>
       </c>
       <c r="E46" t="n">
-        <v>1.391920176288011</v>
+        <v>1.392258590399091</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.36682142610899</v>
+        <v>-1.3677052378456</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4326389448686705</v>
+        <v>0.4408631947774666</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.225938385787479</v>
       </c>
       <c r="E47" t="n">
-        <v>1.240124920268015</v>
+        <v>1.239981684527977</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.325730082928315</v>
+        <v>-1.324496051937215</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3681860098896499</v>
+        <v>0.3768887616113215</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2080728993632495</v>
       </c>
       <c r="E48" t="n">
-        <v>1.037844574951421</v>
+        <v>1.034048040830844</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.247830302596022</v>
+        <v>-1.245859630656154</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2925937415891844</v>
+        <v>0.2963587953273357</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1928232861845276</v>
       </c>
       <c r="E49" t="n">
-        <v>0.880105822729394</v>
+        <v>0.8766854791788076</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.179627267060503</v>
+        <v>-1.176408397957443</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2523020001221294</v>
+        <v>0.2536178801075368</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1798555484290075</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7767573012439121</v>
+        <v>0.7756114153236052</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.107788247354779</v>
+        <v>-1.104441095693333</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2101670822640313</v>
+        <v>0.2135024287820675</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.168248903683599</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6478970778403886</v>
+        <v>0.6432789057384924</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.069218482806427</v>
+        <v>-1.068222915712204</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1701995887359642</v>
+        <v>0.1731256902824622</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1577191135293994</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4836387384179341</v>
+        <v>0.4748824700461384</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.040258892003176</v>
+        <v>-1.036023206547756</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1311088238584617</v>
+        <v>0.1319288878206593</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1480890509265022</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4162770161027499</v>
+        <v>0.4104799036789994</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.036277410635846</v>
+        <v>-1.032814568568984</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09807016250236023</v>
+        <v>0.1017832736095085</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1392178388973391</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2589900073685361</v>
+        <v>0.252163486439455</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9829150143855099</v>
+        <v>-0.9758004479572308</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05461936465885475</v>
+        <v>0.05643578272483574</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1304383272920504</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1392606688876779</v>
+        <v>0.1331251423528478</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9615563619190202</v>
+        <v>-0.9523389059446834</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02608869406615848</v>
+        <v>0.02802473758535832</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1219761775941173</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0483311582692585</v>
+        <v>0.04338716420925304</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9465827180180868</v>
+        <v>-0.9370370790569588</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.004525977843139902</v>
+        <v>-0.005352337881822764</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1129937765594486</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0631251357100432</v>
+        <v>-0.0690686319120746</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9511009399057804</v>
+        <v>-0.9395539356319186</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04573537245791321</v>
+        <v>-0.04744160918540315</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1035638335326306</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1199393558933915</v>
+        <v>-0.1243151290506074</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9365389020050671</v>
+        <v>-0.9226206379249657</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07626032527729745</v>
+        <v>-0.07761240770249474</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.09399154456215641</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2014200297266429</v>
+        <v>-0.2048718536596554</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9471737621981352</v>
+        <v>-0.9319089247597611</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1071284142651252</v>
+        <v>-0.1062595557101672</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08369790920883491</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2915562347079268</v>
+        <v>-0.2959351559033853</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9453227157114855</v>
+        <v>-0.9288946781424703</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1286011831179092</v>
+        <v>-0.1268917983521767</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.07264018717316902</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3880247186142034</v>
+        <v>-0.3915583915415234</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9258127487029635</v>
+        <v>-0.9096680345757824</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1534879994447944</v>
+        <v>-0.1492475919320103</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06081752759192837</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4911623215374309</v>
+        <v>-0.4957978078496615</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9199117510172072</v>
+        <v>-0.900992041179173</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1785337917029309</v>
+        <v>-0.1764985849790892</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.04840977296524664</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5678626992992921</v>
+        <v>-0.567725759635739</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9362909939934622</v>
+        <v>-0.9134566986007531</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2027453538267781</v>
+        <v>-0.1993501945821325</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03528222625927654</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6794386187318127</v>
+        <v>-0.6818783483698287</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9641511324404843</v>
+        <v>-0.9381278743080201</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.236068912643835</v>
+        <v>-0.2338999142946826</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.02228901632221625</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.802933010950822</v>
+        <v>-0.8043260178731731</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.00212040869406</v>
+        <v>-0.9756359629590549</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2800470068929762</v>
+        <v>-0.2781912383489627</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.009248791361072029</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8940356636725846</v>
+        <v>-0.898871837422781</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.029875874869516</v>
+        <v>-1.004241399460013</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3057790714879998</v>
+        <v>-0.3041436656209685</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.003441943533134552</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9412609593689691</v>
+        <v>-0.9436463853473003</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.068318143869043</v>
+        <v>-1.042981945083026</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3440387542694557</v>
+        <v>-0.342030305870676</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.01542575980084178</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9818926889662251</v>
+        <v>-0.9875465656499371</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.078095163641002</v>
+        <v>-1.051502110586627</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3671390588936645</v>
+        <v>-0.3647213655233467</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02661354124211977</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.044295464039751</v>
+        <v>-1.049246541185803</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.123870787726668</v>
+        <v>-1.098300847101139</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.384395030520484</v>
+        <v>-0.3834191386652775</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.03687387350828721</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.068957195632291</v>
+        <v>-1.074216780526117</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.166193800869762</v>
+        <v>-1.139524407888004</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3914151558014851</v>
+        <v>-0.3927058514809516</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.04534932242490546</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.076791088799004</v>
+        <v>-1.086409919649273</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.1766712591507</v>
+        <v>-1.14929749261216</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4200780440003706</v>
+        <v>-0.4218582596265616</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.05204514019321502</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.098976101304177</v>
+        <v>-1.107312893580146</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.210973070851645</v>
+        <v>-1.185831263427109</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4075834802154857</v>
+        <v>-0.404098601880926</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.0565206751706146</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.061787538534766</v>
+        <v>-1.075373684580273</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.232944803765881</v>
+        <v>-1.210818816977758</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4152363611832497</v>
+        <v>-0.4115751927071042</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.05918156507741789</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.060149771639053</v>
+        <v>-1.074947912407961</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.249807270612376</v>
+        <v>-1.229152991702668</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4139519615802683</v>
+        <v>-0.4121103592083465</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.06028215080396513</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.011363048974338</v>
+        <v>-1.028944842559266</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.269377050347507</v>
+        <v>-1.249133590428459</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4145138864065727</v>
+        <v>-0.4152662675465544</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.0608197827940287</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9274985231818765</v>
+        <v>-0.942908957388971</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.28479771567889</v>
+        <v>-1.263116389292534</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3887597855438508</v>
+        <v>-0.3888321904234306</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.06068747487619255</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8668169380174925</v>
+        <v>-0.8808351523117963</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.298808846887148</v>
+        <v>-1.275887193433207</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3694922174800091</v>
+        <v>-0.3708332817713573</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05976383529291974</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7181783773452652</v>
+        <v>-0.7342916110900204</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.286553534008701</v>
+        <v>-1.263031392259984</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3263090028871247</v>
+        <v>-0.3267654684323019</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05818714008432547</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6039581057889596</v>
+        <v>-0.6212424097599624</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.307118880838055</v>
+        <v>-1.284368795468336</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.308983774418968</v>
+        <v>-0.3109040777469549</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05431207088222852</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4496522892704892</v>
+        <v>-0.4663982787020072</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.302391314407229</v>
+        <v>-1.280928776678733</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2870923164799181</v>
+        <v>-0.289332145689529</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.04766751926514635</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3034227648634127</v>
+        <v>-0.3215239847583706</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.314006788512867</v>
+        <v>-1.295308228361375</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2623928084284677</v>
+        <v>-0.2647160606515075</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.03629060242909175</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1401906859080462</v>
+        <v>-0.1601492483661389</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.323030640135284</v>
+        <v>-1.305093905238502</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.234315455342706</v>
+        <v>-0.2384692918038185</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01970825287065613</v>
       </c>
       <c r="E83" t="n">
-        <v>0.05243462611848939</v>
+        <v>0.03367704024994909</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.300876321002977</v>
+        <v>-1.28513612978997</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1755053789135484</v>
+        <v>-0.1781953775918513</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.002091262119738663</v>
       </c>
       <c r="E84" t="n">
-        <v>0.215551801678001</v>
+        <v>0.1971011495381143</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.291161474986309</v>
+        <v>-1.280044964942123</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1524916453410111</v>
+        <v>-0.1550132239733348</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.0266600089334178</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3849933860668987</v>
+        <v>0.3673706679848162</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.205164940294046</v>
+        <v>-1.198051160875327</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1079421821508377</v>
+        <v>-0.1103693196358834</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.05157724938007423</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5881032394604182</v>
+        <v>0.5681541211170532</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.131530751780478</v>
+        <v>-1.125455824981818</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05290188151719524</v>
+        <v>-0.0576144947663695</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.0724975543554707</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7767761894733677</v>
+        <v>0.7561565389843287</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.044472541190898</v>
+        <v>-1.042056421839701</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.009196092576039042</v>
+        <v>-0.01336881726660717</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08526759766741068</v>
       </c>
       <c r="E88" t="n">
-        <v>0.933787744861354</v>
+        <v>0.912409417155848</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9161608634511477</v>
+        <v>-0.9156800006095903</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01592682661904124</v>
+        <v>0.0114896667160946</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08688877057653671</v>
       </c>
       <c r="E89" t="n">
-        <v>1.069000709438447</v>
+        <v>1.050296640220031</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8091047399254421</v>
+        <v>-0.8096635167135038</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04250413948220335</v>
+        <v>0.04086715959605063</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07459738321145322</v>
       </c>
       <c r="E90" t="n">
-        <v>1.172113128055734</v>
+        <v>1.15118496981892</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6699551535259761</v>
+        <v>-0.6671880279107295</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06465531057626793</v>
+        <v>0.06041962512084777</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04766915839398705</v>
       </c>
       <c r="E91" t="n">
-        <v>1.266530665046955</v>
+        <v>1.246647655506685</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.493701214380089</v>
+        <v>-0.4929787396034119</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0368974833721303</v>
+        <v>0.03405952689642516</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.006498886953776476</v>
       </c>
       <c r="E92" t="n">
-        <v>1.300649103520269</v>
+        <v>1.28191670195767</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3445896609619109</v>
+        <v>-0.3443929085717483</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06379117407867385</v>
+        <v>0.06045425354151639</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.04589655974639718</v>
       </c>
       <c r="E93" t="n">
-        <v>1.330791569693177</v>
+        <v>1.31088809790433</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.233190031670976</v>
+        <v>-0.2354912476263176</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04898280218547698</v>
+        <v>0.0458268938472691</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1060751004466524</v>
       </c>
       <c r="E94" t="n">
-        <v>1.285223716131522</v>
+        <v>1.263204762643647</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09922526425707448</v>
+        <v>-0.1055717093541589</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06272398911443199</v>
+        <v>0.06186300065508051</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1697274518282756</v>
       </c>
       <c r="E95" t="n">
-        <v>1.249875968724473</v>
+        <v>1.229050121730543</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01289031545373176</v>
+        <v>-0.01685054756292429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01946049954636128</v>
+        <v>0.01819498817283553</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2327190766616675</v>
       </c>
       <c r="E96" t="n">
-        <v>1.162262916394634</v>
+        <v>1.140788573522729</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06237455686950323</v>
+        <v>0.05938234651991062</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01876298079530462</v>
+        <v>-0.02177565339347414</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2931252145272405</v>
       </c>
       <c r="E97" t="n">
-        <v>1.098685136047057</v>
+        <v>1.078301588426213</v>
       </c>
       <c r="F97" t="n">
-        <v>0.109281900703385</v>
+        <v>0.1059323880132572</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01725192243885596</v>
+        <v>-0.01418573319056222</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3477362347184124</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9997234058526397</v>
+        <v>0.9787936735967044</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1079329663164303</v>
+        <v>0.1047959462076781</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05859353465981853</v>
+        <v>-0.06092623099758615</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3943305626260125</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9286375542964581</v>
+        <v>0.9138150162311695</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1243405416368687</v>
+        <v>0.12003402532099</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05598695899494459</v>
+        <v>-0.0551086563252588</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4294464600678077</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8697472028921142</v>
+        <v>0.859094241479151</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1136938763003909</v>
+        <v>0.110988137430875</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06181869983936364</v>
+        <v>-0.06227359136541954</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4516238093757038</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7854317206214002</v>
+        <v>0.7765101802418679</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1066721770002685</v>
+        <v>0.1051595446246985</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06393418153839177</v>
+        <v>-0.06308421121288939</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4580746139720234</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7534287638471145</v>
+        <v>0.7484344011752275</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1108921222644756</v>
+        <v>0.107805470767605</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06368548651722625</v>
+        <v>-0.06322429891468515</v>
       </c>
     </row>
   </sheetData>
